--- a/proporção_coincidentes.xlsx
+++ b/proporção_coincidentes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wsl_atual\simulador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701416C9-8159-439E-AAA8-E8663DB430BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F871E9B-6327-430B-86C6-93B4E647C03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4157289D-46B4-428C-B3A9-8A8871264ACC}"/>
   </bookViews>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F88871-AE7E-4E4B-A973-B7DD915DAF5A}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,8 +815,8 @@
         <v>1</v>
       </c>
       <c r="I3" s="12">
-        <f>306*(H3/G2)</f>
-        <v>1.1208791208791209</v>
+        <f>272*(H3/G2)</f>
+        <v>0.99633699633699635</v>
       </c>
       <c r="J3" s="39"/>
       <c r="L3" s="10"/>
@@ -825,8 +825,8 @@
         <v>1</v>
       </c>
       <c r="O3" s="12">
-        <f>306*(N3/M2)</f>
-        <v>1.6721311475409837</v>
+        <f>182*(N3/M2)</f>
+        <v>0.99453551912568305</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="15">
         <f>(I2+I3)/G2</f>
-        <v>4.3338834547625759E-3</v>
+        <v>3.8776851963665151E-3</v>
       </c>
       <c r="J4" s="40"/>
       <c r="L4" s="13"/>
@@ -850,7 +850,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="15">
         <f>(O2+O3)/M2</f>
-        <v>9.5553763922482018E-3</v>
+        <v>5.8526680402520232E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,8 +1191,8 @@
         <v>1</v>
       </c>
       <c r="D16" s="12">
-        <f>306*(C16/B15)</f>
-        <v>2.3007518796992481</v>
+        <f>132*(C16/B15)</f>
+        <v>0.99248120300751874</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
       <c r="C17" s="14"/>
       <c r="D17" s="15">
         <f>(D15+D16)/B15</f>
-        <v>1.7977274012097914E-2</v>
+        <v>8.14065238283679E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1311,8 +1311,8 @@
         <v>1</v>
       </c>
       <c r="I23" s="12">
-        <f>306*(H23/G22)</f>
-        <v>3.3626373626373627</v>
+        <f>90*(H23/G22)</f>
+        <v>0.98901098901098905</v>
       </c>
       <c r="J23" s="42"/>
     </row>
@@ -1335,7 +1335,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="15">
         <f>(I22+I23)/G22</f>
-        <v>3.8159642555246953E-2</v>
+        <v>1.2075836251660428E-2</v>
       </c>
       <c r="J24" s="19"/>
     </row>
